--- a/datasets/Brasileirao/match_history/teams/juventude.xlsx
+++ b/datasets/Brasileirao/match_history/teams/juventude.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022-04-11</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -578,12 +590,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>563</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5694980045295416</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022-04-16</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>44667</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,12 +658,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>558</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5723526251566332</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2022-04-24</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>44675</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -706,12 +726,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>550</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5769498103804866</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>44682</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -770,12 +794,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>543</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5810026273636019</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022-05-08</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>44689</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,12 +862,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>536</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5850839135917069</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022-05-15</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>44696</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -898,12 +930,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>529</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5891938690486437</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022-05-21</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>44702</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -962,12 +998,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>523</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5927396589954125</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022-05-28</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>44709</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1026,12 +1066,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>516</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.596903392674358</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022-06-05</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>44717</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1090,12 +1134,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>508</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6016977717621094</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022-06-08</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>44720</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1154,12 +1202,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>505</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6035055754270405</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022-06-11</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>44723</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1218,12 +1270,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>502</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6053188106462243</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022-06-14</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>44726</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1282,12 +1338,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>499</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6071374937387897</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022-06-19</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>44731</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1346,12 +1406,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>494</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.6101807830906798</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022-06-26</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>44738</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1410,12 +1474,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>487</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.6144670329446308</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022-07-02</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>44744</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1474,12 +1542,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>481</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6181649177029258</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2022-07-10</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>44752</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1538,12 +1610,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>473</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6231300711776578</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2022-07-17</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>44759</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1602,12 +1678,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>466</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6275072840473407</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2022-07-20</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>44762</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1666,12 +1746,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>463</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6293926325081629</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2022-07-24</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>44766</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1730,12 +1814,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>459</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6319152448994959</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2022-07-31</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>44773</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1794,12 +1882,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>452</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6363541697250871</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>44779</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1858,12 +1950,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>446</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.6401837720616471</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>44786</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1922,12 +2018,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>439</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6446807796298013</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>44794</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1986,12 +2086,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>431</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.6498589107747496</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2050,12 +2154,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>423</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.6550786331118063</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>44807</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2114,12 +2222,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>418</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.6583622284248272</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2022-09-10</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>44814</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2178,12 +2290,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>411</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.6629869316007274</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2022-09-18</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>44822</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2242,12 +2358,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>403</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.6683120993235603</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2022-09-28</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>44832</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2306,12 +2426,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>393</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.6750287475861332</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2370,12 +2494,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>390</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6770568744981647</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2022-10-04</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>44838</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2434,12 +2562,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>387</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.6790910949266368</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2022-10-10</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2498,12 +2630,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>381</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6831778896198997</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>44850</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2562,12 +2698,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>375</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.6872892787909722</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2022-10-23</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>44857</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2626,12 +2766,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>368</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.6921171816887304</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022-10-27</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>44861</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2690,12 +2834,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>364</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.6948911947429106</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>44867</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2754,12 +2902,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>358</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.6990730750065257</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2022-11-05</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>44870</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2818,12 +2970,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>355</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7011734432085724</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2022-11-09</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>44874</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2882,12 +3038,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>351</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.7039837538556208</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2022-11-13</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>44878</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2946,12 +3106,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>347</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.7068053282577494</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2021-05-29</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>44345</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3010,12 +3174,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>880</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.4147829116815814</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2021-06-06</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>44353</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3074,12 +3242,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>872</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.4181144834939193</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2021-06-12</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>44359</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3138,12 +3310,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>866</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4206307115303125</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2021-06-16</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44363</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3202,12 +3378,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>862</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.4223166039133439</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2021-06-20</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44367</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3266,12 +3446,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>858</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.4240092533710473</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2021-06-24</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44371</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3330,12 +3514,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>854</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.4257086869858502</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>44374</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3394,12 +3582,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>851</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.4269877306530259</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2021-06-30</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3458,12 +3650,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>848</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.4282706172126597</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2021-07-04</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>44381</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3522,12 +3718,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>844</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.4299871304192398</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2021-07-07</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>44384</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3586,12 +3786,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>841</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4312790286889785</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2021-07-11</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>44388</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3650,12 +3854,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>837</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.4330075996408776</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2021-07-18</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>44395</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3714,12 +3922,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>830</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.4360492863215356</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2021-07-26</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>44403</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3778,12 +3990,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>822</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.4395516714733476</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2021-08-08</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>44416</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3842,12 +4058,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>809</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.4453031467923587</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2021-08-14</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>44422</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3906,12 +4126,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>803</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.4479829971847437</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2021-08-21</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>44429</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3970,12 +4194,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>796</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.4511298794030423</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2021-08-29</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>44437</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4034,12 +4262,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>788</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.4547533931679402</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2021-09-02</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>44441</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4098,12 +4330,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>784</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.4565760496233147</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2021-09-07</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>44446</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4162,12 +4398,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>779</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.4588646465959545</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2021-09-11</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>44450</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4226,12 +4466,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>775</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.4607037809989658</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2021-09-18</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>44457</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4290,12 +4534,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>768</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4639400210916467</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2021-09-26</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>44465</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4354,12 +4602,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>760</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.4676664270099092</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2021-10-03</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>44472</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4418,12 +4670,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>753</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.4709515766082228</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2021-10-06</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>44475</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4482,12 +4738,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>750</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4723665527410147</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2021-10-09</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>44478</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4546,12 +4806,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>747</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.4737857801759698</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2021-10-13</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>44482</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4610,12 +4874,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>743</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.4756847186416878</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2021-10-17</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>44486</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4674,12 +4942,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>739</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.4775912680730521</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2021-10-23</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>44492</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4738,12 +5010,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>733</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4804654295434223</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2021-10-30</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>44499</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4802,12 +5078,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>726</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.483840486467991</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2021-11-10</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>44510</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4866,12 +5146,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>715</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.4891921117963315</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2021-11-14</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>44514</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4930,12 +5214,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>711</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.4911527990036827</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2021-11-17</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>44517</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4994,12 +5282,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>708</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4926284698001355</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2021-11-20</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>44520</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5058,12 +5350,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>705</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4941085742561417</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2021-11-23</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>44523</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5122,12 +5418,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>702</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4955931256926514</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2021-11-30</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>44530</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5186,12 +5486,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>695</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.4990744479851359</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2021-12-03</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>44533</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5250,12 +5554,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>692</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.5005739194116277</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2021-12-06</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>44536</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5314,12 +5622,16 @@
           <t>juventude</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>689</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.502077896006773</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2021-12-09</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>44539</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5377,6 +5689,12 @@
         <is>
           <t>juventude</t>
         </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>686</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.5035863913063714</v>
       </c>
     </row>
   </sheetData>
